--- a/class_schedules_spring_2018/RHETORIC & COMPOSITION PRACTICA (RTCP).xlsx
+++ b/class_schedules_spring_2018/RHETORIC & COMPOSITION PRACTICA (RTCP).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>107</t>
   </si>
@@ -37,22 +37,31 @@
     <t>F</t>
   </si>
   <si>
-    <t>Practicum in</t>
-  </si>
-  <si>
-    <t>Fellowship Writing</t>
+    <t>Practicum</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>Fellowship</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>TR</t>
   </si>
   <si>
     <t>Journalism</t>
   </si>
   <si>
-    <t>TR</t>
+    <t>0300</t>
   </si>
   <si>
     <t>TBA</t>
   </si>
   <si>
-    <t>0300-0350pm</t>
+    <t>0350pm</t>
   </si>
   <si>
     <t>CARN</t>
@@ -419,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -456,8 +465,14 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -479,20 +494,23 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -515,16 +533,22 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
